--- a/Plan/Table/0.로케일 테이블.xlsx
+++ b/Plan/Table/0.로케일 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8073699B-F300-4AA5-851F-5E13E1DA4D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76595929-1E59-4252-9C01-6EEF92330CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2700" windowWidth="21420" windowHeight="11430" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
+    <workbookView xWindow="4350" yWindow="2550" windowWidth="21420" windowHeight="11430" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="407">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,308 +320,1148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Dialogue_event_areaheal1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가는 길에서 성소의 흔적을 발견한 (member)는 기도를 올리기 위해 찾아간 곳에서 작은 황금 우상을 발견합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우상에 기도한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우상을 챙겨간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우상에 기도하자 우상이 빛이 나며 파티원 전원의 부상이 모두 회복됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal2</t>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal3</t>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal4</t>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal5</t>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal6</t>
+  </si>
+  <si>
+    <t>Dialogue_event_areaheal7</t>
+  </si>
+  <si>
+    <t>파티는 우물을 발견합니다. 물을 마시기 위한 우물과는 어딘가 달라 보입니다. 물통에는 금화를 통의 절반까지 넣어 내리라고 적혀 있습니다. 우물의 안쪽은 너무 깊고 어두워 보이지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The party discovers a well. It looks different from a regular well used for drawing water. A sign on the bucket instructs to fill the bucket halfway with gold coins and lower it. The inside of the well appears too deep and dark to see.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 골드를 넣는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put 20 gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 10개 밖에 남아있지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull the bucket back up, only 10 gold coins remain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통을 채우기엔 돈이 부족합니다. 파티는 가던 길을 마저 가기로 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They don't have enough money to fill the bucket. The party decides to continue on their way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 40개로 늘어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull the bucket back up, the number of gold coins has increased to 40.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up to check inside, the bucket explodes. The bucket remains intact, but the nearby (member) takes 10 damage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에 금화는온데간데 없고 (gacha_item)이 들어 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up, the gold coins are gone, and a (gacha_item) is inside.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 남아있지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up, no gold coins remain in the bucket.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they enter the dungeon, the walls are damp, and the floor is covered with slippery, rusty moss. On one side, they see a small underground lake with tiny fish swimming. Deciding to rest here for a while, the party discovers a small pile of herbs. The party discusses who should use these herbs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use it on one member.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share it with everyone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks to using the herbs generously, (member)'s wounds are mostly healed. Whether it's the effect of the herbs or not, (member) looks in better condition than before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The herbs were shared among all the party members who needed them. Although it wasn't as plentiful as they had hoped, the herbs managed to heal their wounds to some extent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The party discovers traces of another group that perished here. Most of the remains are heavily damaged, leaving little to salvage, but (member) notices the sturdy equipment of a fallen warrior who held the front line.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take the intact equipment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check  the inside of the equipment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) takes the shield held by the corpse. Considering it's the only thing left intact, it must be suitable for protection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) searches for something more reliable than the equipment of the fallen party. Inside the warrior's armor, they find a few intact gold coins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) searches for something more reliable than the fallen party's dubious equipment. However, there is nothing intact to be found.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As they move forward, (member) feels like they have touched something invisible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspect the area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave quickly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸음을 멈추고 주변을 조사한 결과 (member)은 몸을 감출 수 있는 망토을 발견합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) stops and inspects the area, discovering a cloak of invisibility.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)은 기습당하기 전에 숨어있던 적 부대를 발견합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) discovers an enemy squad hiding before they can launch an ambush.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)이 걸음을 멈추자 숨어있던 적 부대가 덮쳐옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As (member) stops, the hidden enemy squad attacks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)은 쓰러뜨린 상대로부터 몸을 감출 수 있는 망토/연막을 빼앗습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) takes a cloak of invisibility/smoke screen from the defeated enemy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)은 어둠 속에 숨어있는 적의 모습을 간파하고 빠르게 자리를 뜹니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) detects the enemy hiding in the darkness and quickly leaves the area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)은 무엇이 있었는지 파악하진 못했지만 찝찝한 기분에 누구보다 빠르게 자리를 떠납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) couldn't figure out what was there, but with an uneasy feeling, they leave the area faster than anyone else.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are signs of a battle here, but no enemies in sight. (member) is particularly concerned about the arrows sticking out of the corpses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspect the arrows.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull out the arrows.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 시체들에 박힌 화살이 전부 급소에 박혀 빠르게 쓰러뜨렸다는 것을 눈치챕니다. 화살이 박혀있던 위치를 통해 급소에 대한 지식을 파티와 공유할 수 있을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) notices that all the arrows embedded in the corpses are in vital spots, indicating they were quickly taken down. They realize they can share this knowledge about the vital points with the party.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 강하게 박혀있는 화살들로부터 좋은 인상을 받습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) is impressed by how firmly the arrows are embedded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 화살을 뽑았습니다. 이걸로 돈을 아낄 수 있을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) pulled out the arrows. This should help save some money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 오염된 화살을 뽑다가 손을 다치고맙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) injures their hand while pulling out a contaminated arrow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A glowing blue crystal orb lies on the ground. While it looks like a mere decoration to others, (member) recognizes it as an item used by wizards to store knowledge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interpret the contents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use the crystal orb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absorb only the magic.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) successfully interprets the magic 'Blizzard' contained within the orb and makes it their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 그 안에 담겨있는 마법을 발동했습니다. 눈보라는 (member)를 덥쳐 20의 피해를 입혔으나 (member)는 마지막에 이 힘을 자신의 것으로 하는데 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 그 안에 담겨있는 마법을 알아내는 과정에서 엄청난 한기에 휩싸이고 결국 포기합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) is engulfed by an intense cold while trying to decipher the magic within and eventually gives up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) activated the magic contained within. The blizzard engulfed (member), dealing 20 damage, but in the end, (member) successfully made this power their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(member)는 그 안에 담겨있는 마법을 발동했습니다. 눈보라는 파티 전체를 덥쳐 모두에게 20의 피해를 입혔으나 (member)는 마지막에 이 힘을 자신의 것으로 하는데 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(member)는 수정에 담긴 내용은 무시하고 그 안에 담긴 마력을 자신의 것으로 만듭니다.</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가는 길에서 성소의 흔적을 발견한 (member)는 기도를 올리기 위해 찾아간 곳에서 작은 황금 우상을 발견합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우상에 기도한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우상을 챙겨간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우상에 기도하자 우상이 빛이 나며 파티원 전원의 부상이 모두 회복됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal2</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal3</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal4</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal5</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal6</t>
-  </si>
-  <si>
-    <t>Dialogue_event_areaheal7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) activated the magic contained within. The blizzard engulfed the entire party, dealing 20 damage to everyone, but in the end, (member) successfully made this power their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) ignores the contents of the crystal and absorbs the magic within, making it their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the way, (member) discovers traces of a sanctuary. Upon approaching to offer a prayer, they find a small golden idol.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pray to the idol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take the idol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우상에 기도하자 우상이 빛이 나며 (member)의 머리속에 새로운 지식이 흘러들어 옵니다.</t>
-  </si>
-  <si>
-    <t>(member)는 우상을 챙겨가기로 합니다. 골드를 n 획득했습니다.</t>
-  </si>
-  <si>
-    <t>(member)는 우상을 챙겨가기로 합니다. 우상에 손을 대자 갑자기 (member)에게 갑자기 죄악감이 찾아옵니다. 그래도 골드를 n 획득했습니다.</t>
-  </si>
-  <si>
-    <t>파티는 우물을 발견합니다. 물을 마시기 위한 우물과는 어딘가 달라 보입니다. 물통에는 금화를 통의 절반까지 넣어 내리라고 적혀 있습니다. 우물의 안쪽은 너무 깊고 어두워 보이지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The party discovers a well. It looks different from a regular well used for drawing water. A sign on the bucket instructs to fill the bucket halfway with gold coins and lower it. The inside of the well appears too deep and dark to see.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 골드를 넣는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Put 20 gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>떠난다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 10개 밖에 남아있지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull the bucket back up, only 10 gold coins remain.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물통을 채우기엔 돈이 부족합니다. 파티는 가던 길을 마저 가기로 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They don't have enough money to fill the bucket. The party decides to continue on their way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 40개로 늘어 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull the bucket back up, the number of gold coins has increased to 40.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up to check inside, the bucket explodes. The bucket remains intact, but the nearby (member) takes 10 damage.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에 금화는온데간데 없고 (gacha_item)이 들어 있었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up, the gold coins are gone, and a (gacha_item) is inside.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물통을 내리는 중 물통의 무게가 바뀐듯한 느낌이 듭니다. 급하게 꺼내올린 물통에는 금화가 남아있지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they lower the bucket, it feels like the weight of the bucket changes. When they quickly pull it back up, no gold coins remain in the bucket.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they enter the dungeon, the walls are damp, and the floor is covered with slippery, rusty moss. On one side, they see a small underground lake with tiny fish swimming. Deciding to rest here for a while, the party discovers a small pile of herbs. The party discusses who should use these herbs.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use it on one member.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share it with everyone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thanks to using the herbs generously, (member)'s wounds are mostly healed. Whether it's the effect of the herbs or not, (member) looks in better condition than before.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The herbs were shared among all the party members who needed them. Although it wasn't as plentiful as they had hoped, the herbs managed to heal their wounds to some extent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The party discovers traces of another group that perished here. Most of the remains are heavily damaged, leaving little to salvage, but (member) notices the sturdy equipment of a fallen warrior who held the front line.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Take the intact equipment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check  the inside of the equipment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) takes the shield held by the corpse. Considering it's the only thing left intact, it must be suitable for protection.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) searches for something more reliable than the equipment of the fallen party. Inside the warrior's armor, they find a few intact gold coins.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) searches for something more reliable than the fallen party's dubious equipment. However, there is nothing intact to be found.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As they move forward, (member) feels like they have touched something invisible.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inspect the area.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave quickly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸음을 멈추고 주변을 조사한 결과 (member)은 몸을 감출 수 있는 망토을 발견합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) stops and inspects the area, discovering a cloak of invisibility.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)은 기습당하기 전에 숨어있던 적 부대를 발견합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) discovers an enemy squad hiding before they can launch an ambush.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)이 걸음을 멈추자 숨어있던 적 부대가 덮쳐옵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As (member) stops, the hidden enemy squad attacks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)은 쓰러뜨린 상대로부터 몸을 감출 수 있는 망토/연막을 빼앗습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) takes a cloak of invisibility/smoke screen from the defeated enemy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)은 어둠 속에 숨어있는 적의 모습을 간파하고 빠르게 자리를 뜹니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) detects the enemy hiding in the darkness and quickly leaves the area.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)은 무엇이 있었는지 파악하진 못했지만 찝찝한 기분에 누구보다 빠르게 자리를 떠납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) couldn't figure out what was there, but with an uneasy feeling, they leave the area faster than anyone else.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There are signs of a battle here, but no enemies in sight. (member) is particularly concerned about the arrows sticking out of the corpses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inspect the arrows.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pull out the arrows.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 시체들에 박힌 화살이 전부 급소에 박혀 빠르게 쓰러뜨렸다는 것을 눈치챕니다. 화살이 박혀있던 위치를 통해 급소에 대한 지식을 파티와 공유할 수 있을 것 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) notices that all the arrows embedded in the corpses are in vital spots, indicating they were quickly taken down. They realize they can share this knowledge about the vital points with the party.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 강하게 박혀있는 화살들로부터 좋은 인상을 받습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) is impressed by how firmly the arrows are embedded.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 화살을 뽑았습니다. 이걸로 돈을 아낄 수 있을 것 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) pulled out the arrows. This should help save some money.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 오염된 화살을 뽑다가 손을 다치고맙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) injures their hand while pulling out a contaminated arrow.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A glowing blue crystal orb lies on the ground. While it looks like a mere decoration to others, (member) recognizes it as an item used by wizards to store knowledge.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interpret the contents.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use the crystal orb.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Absorb only the magic.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) successfully interprets the magic 'Blizzard' contained within the orb and makes it their own.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 그 안에 담겨있는 마법을 발동했습니다. 눈보라는 (member)를 덥쳐 20의 피해를 입혔으나 (member)는 마지막에 이 힘을 자신의 것으로 하는데 성공했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member)는 그 안에 담겨있는 마법을 알아내는 과정에서 엄청난 한기에 휩싸이고 결국 포기합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) is engulfed by an intense cold while trying to decipher the magic within and eventually gives up.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(member) activated the magic contained within. The blizzard engulfed (member), dealing 20 damage, but in the end, (member) successfully made this power their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As (member) prays to the idol, it begins to glow, and new knowledge flows into (member)'s mind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As (member) prays to the idol, it begins to glow, and all party members' injuries are healed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_getmoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(money) 골드를 얻었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(money) 골드를 잃었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_losemoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_gettrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 (trait) 특성을 얻었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_losetrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)의 (trait) 특성이 없어졌습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_changetrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)의 (trait) 특성이 (trait2) 특성이 되었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_getdamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue_system_getheal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)에게 (damage) 피해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)의 체력이 (heal) 회복돠었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 우상을 챙겨가기로 합니다. 우상에 손을 대자 갑자기 (member)에게 갑자기 죄악감이 찾아옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member)는 우상을 챙겨가기로 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) decides to take the idol with them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(member) decides to take the idol with them. As they touch the idol, a sudden feeling of guilt washes over (member).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_11002</t>
+  </si>
+  <si>
+    <t>Item_name_11003</t>
+  </si>
+  <si>
+    <t>Item_name_11004</t>
+  </si>
+  <si>
+    <t>Item_name_11005</t>
+  </si>
+  <si>
+    <t>Item_name_11006</t>
+  </si>
+  <si>
+    <t>Item_name_11007</t>
+  </si>
+  <si>
+    <t>Item_name_11008</t>
+  </si>
+  <si>
+    <t>Item_name_11009</t>
+  </si>
+  <si>
+    <t>Item_name_11010</t>
+  </si>
+  <si>
+    <t>목검</t>
+  </si>
+  <si>
+    <t>조잡한 검</t>
+  </si>
+  <si>
+    <t>철제 검</t>
+  </si>
+  <si>
+    <t>목궁</t>
+  </si>
+  <si>
+    <t>조잡한 활</t>
+  </si>
+  <si>
+    <t>각궁</t>
+  </si>
+  <si>
+    <t>나무 단검</t>
+  </si>
+  <si>
+    <t>조잡한 단검</t>
+  </si>
+  <si>
+    <t>철제 단검</t>
+  </si>
+  <si>
+    <t>나무 대검</t>
+  </si>
+  <si>
+    <t>Item_name_11011</t>
+  </si>
+  <si>
+    <t>Item_name_11012</t>
+  </si>
+  <si>
+    <t>Item_name_11013</t>
+  </si>
+  <si>
+    <t>Item_name_11014</t>
+  </si>
+  <si>
+    <t>Item_name_11015</t>
+  </si>
+  <si>
+    <t>Item_name_11016</t>
+  </si>
+  <si>
+    <t>Item_name_11017</t>
+  </si>
+  <si>
+    <t>Item_name_11018</t>
+  </si>
+  <si>
+    <t>Item_name_11019</t>
+  </si>
+  <si>
+    <t>Item_name_11020</t>
+  </si>
+  <si>
+    <t>Item_name_11021</t>
+  </si>
+  <si>
+    <t>Item_name_11022</t>
+  </si>
+  <si>
+    <t>Item_name_11023</t>
+  </si>
+  <si>
+    <t>Item_name_11024</t>
+  </si>
+  <si>
+    <t>Item_name_11025</t>
+  </si>
+  <si>
+    <t>Item_name_11026</t>
+  </si>
+  <si>
+    <t>Item_name_11027</t>
+  </si>
+  <si>
+    <t>Item_name_11028</t>
+  </si>
+  <si>
+    <t>Item_name_11029</t>
+  </si>
+  <si>
+    <t>Item_name_11030</t>
+  </si>
+  <si>
+    <t>조잡한 대검</t>
+  </si>
+  <si>
+    <t>철제 대검</t>
+  </si>
+  <si>
+    <t>나무 스태프</t>
+  </si>
+  <si>
+    <t>조잡한 스태프</t>
+  </si>
+  <si>
+    <t>고목 스태프</t>
+  </si>
+  <si>
+    <t>간장</t>
+  </si>
+  <si>
+    <t>막야</t>
+  </si>
+  <si>
+    <t>팔콘 블레이드</t>
+  </si>
+  <si>
+    <t>바보의 활</t>
+  </si>
+  <si>
+    <t>듀얼 쇼크</t>
+  </si>
+  <si>
+    <t>휴대용 발리스타</t>
+  </si>
+  <si>
+    <t>포이즌 나이프</t>
+  </si>
+  <si>
+    <t>쥐의 왕</t>
+  </si>
+  <si>
+    <t>럭키 나이프</t>
+  </si>
+  <si>
+    <t>다인 슬라이프</t>
+  </si>
+  <si>
+    <t>바보의 대검</t>
+  </si>
+  <si>
+    <t>엄청 큰 대검</t>
+  </si>
+  <si>
+    <t>쾌속의 스태프</t>
+  </si>
+  <si>
+    <t>바보의 스태프</t>
+  </si>
+  <si>
+    <t>영혼강탈자</t>
+  </si>
+  <si>
+    <t>Item_des_11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_11002</t>
+  </si>
+  <si>
+    <t>Item_des_11003</t>
+  </si>
+  <si>
+    <t>Item_des_11004</t>
+  </si>
+  <si>
+    <t>Item_des_11005</t>
+  </si>
+  <si>
+    <t>Item_des_11006</t>
+  </si>
+  <si>
+    <t>Item_des_11007</t>
+  </si>
+  <si>
+    <t>Item_des_11008</t>
+  </si>
+  <si>
+    <t>Item_des_11009</t>
+  </si>
+  <si>
+    <t>Item_des_11010</t>
+  </si>
+  <si>
+    <t>Item_des_11011</t>
+  </si>
+  <si>
+    <t>Item_des_11012</t>
+  </si>
+  <si>
+    <t>Item_des_11013</t>
+  </si>
+  <si>
+    <t>Item_des_11014</t>
+  </si>
+  <si>
+    <t>Item_des_11015</t>
+  </si>
+  <si>
+    <t>Item_des_11016</t>
+  </si>
+  <si>
+    <t>Item_des_11017</t>
+  </si>
+  <si>
+    <t>Item_des_11018</t>
+  </si>
+  <si>
+    <t>Item_des_11019</t>
+  </si>
+  <si>
+    <t>Item_des_11020</t>
+  </si>
+  <si>
+    <t>Item_des_11021</t>
+  </si>
+  <si>
+    <t>Item_des_11022</t>
+  </si>
+  <si>
+    <t>Item_des_11023</t>
+  </si>
+  <si>
+    <t>Item_des_11024</t>
+  </si>
+  <si>
+    <t>Item_des_11025</t>
+  </si>
+  <si>
+    <t>Item_des_11026</t>
+  </si>
+  <si>
+    <t>Item_des_11027</t>
+  </si>
+  <si>
+    <t>Item_des_11028</t>
+  </si>
+  <si>
+    <t>Item_des_11029</t>
+  </si>
+  <si>
+    <t>Item_des_11030</t>
+  </si>
+  <si>
+    <t>나무로 만든 기본적인 검</t>
+  </si>
+  <si>
+    <t>잘 재련되지 않은 조잡한 검이다.</t>
+  </si>
+  <si>
+    <t>대장간에서 잘 제련된 철제 검이다.</t>
+  </si>
+  <si>
+    <t>나무로 만든 기본적인 활</t>
+  </si>
+  <si>
+    <t>나무로 만든 활을 조금 강화하였다.</t>
+  </si>
+  <si>
+    <t>물소뿔을 잘 이어붙인 각궁이다.</t>
+  </si>
+  <si>
+    <t>나무를 깍아 만든 단검이다.</t>
+  </si>
+  <si>
+    <t>돌로된 날을 사용하는 단검이다.</t>
+  </si>
+  <si>
+    <t>날카로운 철제로 만든 단검이다.</t>
+  </si>
+  <si>
+    <t>큰 나무를 조각해서 만든 검이다.</t>
+  </si>
+  <si>
+    <t>잘 재련되지 않은 큰날을 사용하는 검이다.</t>
+  </si>
+  <si>
+    <t>파티의 '막야'를 착용한 파티원 있을 경우 15%이하의 체력의 적을 처형시킴</t>
+  </si>
+  <si>
+    <t>파티의 '간장'을 착용한 파티원 있을 경우 15% 이상의 적에게 추가 대미지 +300%</t>
+  </si>
+  <si>
+    <t>파티원의 공격속도 30% 증가</t>
+  </si>
+  <si>
+    <t>공격이 빗나갈 때마다 최종데미지 10% 증가</t>
+  </si>
+  <si>
+    <t>기절 중인 상대에게 무조건 치명타</t>
+  </si>
+  <si>
+    <t>사거리 굉장히 김, 이동속도 -90%</t>
+  </si>
+  <si>
+    <t>매 3번 공격마다 적에게 '중독' 상태이상을 줌</t>
+  </si>
+  <si>
+    <t>이 무기를 착용한 파티원 1명당 최종 데미지+20% 공격속도+20%</t>
+  </si>
+  <si>
+    <t>1% 확률로 적 즉사</t>
+  </si>
+  <si>
+    <t>적 처치 시 흡혈량 +5%의 효과를 가진 스택을 쌓는다 (던전 종료 시 스택 삭제)</t>
+  </si>
+  <si>
+    <t>최종 대미지 +50%, 스킬 '막 휘두르기' 제공</t>
+  </si>
+  <si>
+    <t>치명타 발동시 적 기절 부여, 치명타 확률 -10%</t>
+  </si>
+  <si>
+    <t>쿨타임 감소 50% 최종 데미지 -50%</t>
+  </si>
+  <si>
+    <t>범위 공격에 아군을 포함하고 최종 데미지 +100%</t>
+  </si>
+  <si>
+    <t>적군 처치시 무작위 스킬의 쿨타임 초기화</t>
+  </si>
+  <si>
+    <t>Item_des_철제대검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_나무스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_조잡한스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_고목스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_12001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_12002</t>
+  </si>
+  <si>
+    <t>Item_name_12003</t>
+  </si>
+  <si>
+    <t>Item_name_12004</t>
+  </si>
+  <si>
+    <t>Item_name_12005</t>
+  </si>
+  <si>
+    <t>Item_name_12006</t>
+  </si>
+  <si>
+    <t>Item_name_12007</t>
+  </si>
+  <si>
+    <t>Item_name_12008</t>
+  </si>
+  <si>
+    <t>Item_name_12009</t>
+  </si>
+  <si>
+    <t>Item_name_12010</t>
+  </si>
+  <si>
+    <t>Item_name_12011</t>
+  </si>
+  <si>
+    <t>Item_name_12012</t>
+  </si>
+  <si>
+    <t>Item_name_12013</t>
+  </si>
+  <si>
+    <t>Item_name_12014</t>
+  </si>
+  <si>
+    <t>Item_name_12015</t>
+  </si>
+  <si>
+    <t>Item_name_12016</t>
+  </si>
+  <si>
+    <t>Item_name_12017</t>
+  </si>
+  <si>
+    <t>Item_name_12018</t>
+  </si>
+  <si>
+    <t>Item_name_12019</t>
+  </si>
+  <si>
+    <t>천옷</t>
+  </si>
+  <si>
+    <t>가죽갑옷</t>
+  </si>
+  <si>
+    <t>철갑옷</t>
+  </si>
+  <si>
+    <t>천 모자</t>
+  </si>
+  <si>
+    <t>가죽 모자</t>
+  </si>
+  <si>
+    <t>철 투구</t>
+  </si>
+  <si>
+    <t>하급 생명 반지</t>
+  </si>
+  <si>
+    <t>하급 생명 목걸이</t>
+  </si>
+  <si>
+    <t>하급 공격 반지</t>
+  </si>
+  <si>
+    <t>하급 공격 목걸이</t>
+  </si>
+  <si>
+    <t>불멸의 목걸이</t>
+  </si>
+  <si>
+    <t>세계수의 팔찌</t>
+  </si>
+  <si>
+    <t>크로노스의 아뮬렛</t>
+  </si>
+  <si>
+    <t>헤르메스의 브로치</t>
+  </si>
+  <si>
+    <t>고양이 발톱 목걸이</t>
+  </si>
+  <si>
+    <t>설인의 송곳니</t>
+  </si>
+  <si>
+    <t>불사조의 정수</t>
+  </si>
+  <si>
+    <t>갈망의 반지</t>
+  </si>
+  <si>
+    <t>액막이 인형</t>
+  </si>
+  <si>
+    <t>데스링</t>
+  </si>
+  <si>
+    <t>체력 회복 물약</t>
+  </si>
+  <si>
+    <t>약초 더미</t>
+  </si>
+  <si>
+    <t>약초 뭉치</t>
+  </si>
+  <si>
+    <t>붕대</t>
+  </si>
+  <si>
+    <t>한방약</t>
+  </si>
+  <si>
+    <t>연고약</t>
+  </si>
+  <si>
+    <t>만능 물약</t>
+  </si>
+  <si>
+    <t>목검, 조잡한 검, 철제 검</t>
+  </si>
+  <si>
+    <t>부서진 불멸의 목걸이</t>
+  </si>
+  <si>
+    <t>Item_name_12020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_20007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_90001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_12001</t>
+  </si>
+  <si>
+    <t>Item_des_12002</t>
+  </si>
+  <si>
+    <t>Item_des_12003</t>
+  </si>
+  <si>
+    <t>Item_des_12004</t>
+  </si>
+  <si>
+    <t>Item_des_12005</t>
+  </si>
+  <si>
+    <t>Item_des_12006</t>
+  </si>
+  <si>
+    <t>Item_des_12008</t>
+  </si>
+  <si>
+    <t>Item_des_12009</t>
+  </si>
+  <si>
+    <t>Item_des_12010</t>
+  </si>
+  <si>
+    <t>Item_des_12011</t>
+  </si>
+  <si>
+    <t>Item_des_12012</t>
+  </si>
+  <si>
+    <t>Item_des_12013</t>
+  </si>
+  <si>
+    <t>Item_des_12014</t>
+  </si>
+  <si>
+    <t>Item_des_12015</t>
+  </si>
+  <si>
+    <t>Item_des_12016</t>
+  </si>
+  <si>
+    <t>Item_des_12017</t>
+  </si>
+  <si>
+    <t>Item_des_12018</t>
+  </si>
+  <si>
+    <t>Item_des_12019</t>
+  </si>
+  <si>
+    <t>Item_des_12020</t>
+  </si>
+  <si>
+    <t>Item_des_20001</t>
+  </si>
+  <si>
+    <t>Item_des_20002</t>
+  </si>
+  <si>
+    <t>Item_des_20003</t>
+  </si>
+  <si>
+    <t>Item_des_20004</t>
+  </si>
+  <si>
+    <t>Item_des_20005</t>
+  </si>
+  <si>
+    <t>Item_des_20006</t>
+  </si>
+  <si>
+    <t>Item_des_20007</t>
+  </si>
+  <si>
+    <t>Item_des_30001</t>
+  </si>
+  <si>
+    <t>Item_des_90001</t>
+  </si>
+  <si>
+    <t>누구나 입고다니는 일반적인 옷</t>
+  </si>
+  <si>
+    <t>가죽을 덧댄 튼튼한 갑옷</t>
+  </si>
+  <si>
+    <t>철을 덧대 단단함을 중시한 갑옷</t>
+  </si>
+  <si>
+    <t>누구나 입고다니는 일반적인 모자</t>
+  </si>
+  <si>
+    <t>Item_des_12007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_하급 생명 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_하급 생명 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_하급 공격 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_하급 공격 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_불멸의 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_세계수의 팔찌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_크로노스의 아뮬렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_헤르메스의 브로치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_고양이 발톱 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_설인의 송곳니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_불사조의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_갈망의 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_액막이 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_데스링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_체력 회복 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_약초 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_약초 뭉치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_붕대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_한방약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_연고약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_만능 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_목검, 조잡한 검, 철제 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_des_부서진 불멸의 목걸이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +1469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +1505,16 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +1527,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -714,13 +1568,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,13 +1619,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B16E1-566B-48AE-9945-1216E9DF9F89}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1100,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1111,10 +1999,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,10 +2010,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1144,10 +2032,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,10 +2065,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +2112,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +2123,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,7 +2134,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,7 +2156,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +2167,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +2178,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +2200,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +2211,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,7 +2222,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +2230,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +2241,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,10 +2252,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +2263,10 @@
         <v>43</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,10 +2274,10 @@
         <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,10 +2285,10 @@
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +2321,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,10 +2329,10 @@
         <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,10 +2340,10 @@
         <v>50</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +2351,10 @@
         <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +2362,10 @@
         <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +2376,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +2387,7 @@
         <v>63</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +2409,7 @@
         <v>65</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +2420,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +2428,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +2439,10 @@
         <v>68</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,81 +2450,1099 @@
         <v>69</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Plan/Table/0.로케일 테이블.xlsx
+++ b/Plan/Table/0.로케일 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76595929-1E59-4252-9C01-6EEF92330CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66743D7-D5F0-4CA1-AFF7-52A679CD7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2550" windowWidth="21420" windowHeight="11430" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="499">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1462,6 +1462,288 @@
   </si>
   <si>
     <t>Item_des_부서진 불멸의 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name_11041</t>
+  </si>
+  <si>
+    <t>Item_name_11042</t>
+  </si>
+  <si>
+    <t>Item_name_11043</t>
+  </si>
+  <si>
+    <t>Item_name_11044</t>
+  </si>
+  <si>
+    <t>Item_name_12021</t>
+  </si>
+  <si>
+    <t>Item_name_12022</t>
+  </si>
+  <si>
+    <t>Item_name_12023</t>
+  </si>
+  <si>
+    <t>Item_des_11041</t>
+  </si>
+  <si>
+    <t>Item_des_11042</t>
+  </si>
+  <si>
+    <t>Item_des_11043</t>
+  </si>
+  <si>
+    <t>Item_des_11044</t>
+  </si>
+  <si>
+    <t>Item_des_12021</t>
+  </si>
+  <si>
+    <t>Item_des_12022</t>
+  </si>
+  <si>
+    <t>Item_des_12023</t>
+  </si>
+  <si>
+    <t>조잡한 뼈 몽둥이</t>
+  </si>
+  <si>
+    <t>날카로운 뼈 몽둥이</t>
+  </si>
+  <si>
+    <t>폭탄 뭉치</t>
+  </si>
+  <si>
+    <t>조잡한 폭탄 뭉치</t>
+  </si>
+  <si>
+    <t>찢어진 천 가리개</t>
+  </si>
+  <si>
+    <t>천 가리개</t>
+  </si>
+  <si>
+    <t>사람 가죽 천 가리개</t>
+  </si>
+  <si>
+    <t>고블린이 들고 다니는 뼈로 만든 몽둥이 이다.</t>
+  </si>
+  <si>
+    <t>고블린이 들고 다니는 뼈 몽둥이로 뼈를 부러트려 날카롭게 만들어놨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고블린이 들고 다니는 폭탄이다. </t>
+  </si>
+  <si>
+    <t>고블린이 들고 다니는 폭탄으로. 제대로 관리되지 못한 것 같다.</t>
+  </si>
+  <si>
+    <t>고블린이 입고 다녔던 천 가리개이다, 다 찢어져서 몸을 겨우 가릴 수 있을것 같다</t>
+  </si>
+  <si>
+    <t>고블린이 입고 다니는 천 가리개이다.</t>
+  </si>
+  <si>
+    <t>고블린이 입고 다니는 천 가리개이다. 사람 가죽으로 만들어진 것 같다…</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_2</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_3</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_4</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_5</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_6</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_7</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_8</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_9</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_10</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_11</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_12</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_13</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_14</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_15</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_16</t>
+  </si>
+  <si>
+    <t>monster_goblin_name_1</t>
+  </si>
+  <si>
+    <t>무척 허약한' 고블린 척탄병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+  </si>
+  <si>
+    <t>고블린 검사</t>
+  </si>
+  <si>
+    <t>고블린 척탄병</t>
+  </si>
+  <si>
+    <t>멍청한' 고블린</t>
+  </si>
+  <si>
+    <t>매우 어리석은' 고블린</t>
+  </si>
+  <si>
+    <t>무척 말랑한' 고블린</t>
+  </si>
+  <si>
+    <t>무척 허약한' 고블린</t>
+  </si>
+  <si>
+    <t>멍청한' 고블린 검사</t>
+  </si>
+  <si>
+    <t>매우 어리석은' 고블린 검사</t>
+  </si>
+  <si>
+    <t>무척 말랑한' 고블린 검사</t>
+  </si>
+  <si>
+    <t>무척 허약한' 고블린 검사</t>
+  </si>
+  <si>
+    <t>멍청한' 고블린 척탄병</t>
+  </si>
+  <si>
+    <t>매우 어리석은' 고블린 척탄병</t>
+  </si>
+  <si>
+    <t>무척 말랑한' 고블린 척탄병</t>
+  </si>
+  <si>
+    <t>고블린 왕</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_2</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_3</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_4</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_5</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_6</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_7</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_8</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_9</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_10</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_11</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_12</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_13</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_14</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_15</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_16</t>
+  </si>
+  <si>
+    <t>기본 고블린 약화 2</t>
+  </si>
+  <si>
+    <t>기본 고블린 약화 3</t>
+  </si>
+  <si>
+    <t>기본 고블린 약화 4</t>
+  </si>
+  <si>
+    <t>고블린 검사 약화 2</t>
+  </si>
+  <si>
+    <t>고블린 검사 약화 3</t>
+  </si>
+  <si>
+    <t>고블린 검사 약화 4</t>
+  </si>
+  <si>
+    <t>monster_goblin_des_1</t>
+  </si>
+  <si>
+    <t>기본형태의 고블린</t>
+  </si>
+  <si>
+    <t>검을 든 고블린</t>
+  </si>
+  <si>
+    <t>기본 고블린 약화 1</t>
+  </si>
+  <si>
+    <t>고블린 검사 약화 1</t>
+  </si>
+  <si>
+    <t>고블린 보스</t>
+  </si>
+  <si>
+    <t>폭탄을 든 고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 척탄병 약화 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 척탄병 약화 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 척탄병 약화 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린 척탄병 약화 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1628,7 +1910,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1652,9 +1934,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1692,7 +1974,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1798,7 +2080,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1940,7 +2222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1948,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B16E1-566B-48AE-9945-1216E9DF9F89}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,6 +3826,374 @@
         <v>406</v>
       </c>
     </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B180" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B181" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B183" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B184" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B185" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B186" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B187" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B189" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B190" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B191" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B192" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>450</v>
+      </c>
+      <c r="B193" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>437</v>
+      </c>
+      <c r="B196" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>438</v>
+      </c>
+      <c r="B197" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>439</v>
+      </c>
+      <c r="B198" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>440</v>
+      </c>
+      <c r="B199" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>441</v>
+      </c>
+      <c r="B200" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>442</v>
+      </c>
+      <c r="B201" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>444</v>
+      </c>
+      <c r="B203" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>445</v>
+      </c>
+      <c r="B204" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>446</v>
+      </c>
+      <c r="B205" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>447</v>
+      </c>
+      <c r="B206" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>449</v>
+      </c>
+      <c r="B208" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>488</v>
+      </c>
+      <c r="B209" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>467</v>
+      </c>
+      <c r="B210" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>468</v>
+      </c>
+      <c r="B211" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>469</v>
+      </c>
+      <c r="B212" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>470</v>
+      </c>
+      <c r="B213" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>471</v>
+      </c>
+      <c r="B214" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>472</v>
+      </c>
+      <c r="B215" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>473</v>
+      </c>
+      <c r="B216" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>474</v>
+      </c>
+      <c r="B217" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>475</v>
+      </c>
+      <c r="B218" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>476</v>
+      </c>
+      <c r="B219" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>477</v>
+      </c>
+      <c r="B220" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>478</v>
+      </c>
+      <c r="B221" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>479</v>
+      </c>
+      <c r="B222" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>480</v>
+      </c>
+      <c r="B223" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>481</v>
+      </c>
+      <c r="B224" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Table/0.로케일 테이블.xlsx
+++ b/Plan/Table/0.로케일 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepy\OneDrive\문서\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66743D7-D5F0-4CA1-AFF7-52A679CD7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B6002-1D0C-4DB9-8816-4549AF10B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
+    <workbookView xWindow="4650" yWindow="1965" windowWidth="21420" windowHeight="11430" xr2:uid="{D99B67C9-4AEA-42E2-8900-85C1BBEE97A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="880">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,13 +1745,1160 @@
   <si>
     <t>고블린 척탄병 약화 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_name_2</t>
+  </si>
+  <si>
+    <t>trait_name_3</t>
+  </si>
+  <si>
+    <t>trait_name_4</t>
+  </si>
+  <si>
+    <t>trait_name_5</t>
+  </si>
+  <si>
+    <t>trait_name_6</t>
+  </si>
+  <si>
+    <t>trait_name_7</t>
+  </si>
+  <si>
+    <t>trait_name_8</t>
+  </si>
+  <si>
+    <t>trait_name_9</t>
+  </si>
+  <si>
+    <t>trait_name_10</t>
+  </si>
+  <si>
+    <t>trait_name_11</t>
+  </si>
+  <si>
+    <t>trait_name_12</t>
+  </si>
+  <si>
+    <t>trait_name_13</t>
+  </si>
+  <si>
+    <t>trait_name_14</t>
+  </si>
+  <si>
+    <t>trait_name_15</t>
+  </si>
+  <si>
+    <t>trait_name_16</t>
+  </si>
+  <si>
+    <t>trait_name_17</t>
+  </si>
+  <si>
+    <t>trait_name_18</t>
+  </si>
+  <si>
+    <t>trait_name_19</t>
+  </si>
+  <si>
+    <t>trait_name_20</t>
+  </si>
+  <si>
+    <t>trait_name_21</t>
+  </si>
+  <si>
+    <t>trait_name_22</t>
+  </si>
+  <si>
+    <t>trait_name_23</t>
+  </si>
+  <si>
+    <t>trait_name_24</t>
+  </si>
+  <si>
+    <t>trait_name_25</t>
+  </si>
+  <si>
+    <t>trait_name_26</t>
+  </si>
+  <si>
+    <t>trait_name_27</t>
+  </si>
+  <si>
+    <t>trait_name_28</t>
+  </si>
+  <si>
+    <t>trait_name_29</t>
+  </si>
+  <si>
+    <t>trait_name_30</t>
+  </si>
+  <si>
+    <t>trait_name_31</t>
+  </si>
+  <si>
+    <t>trait_name_32</t>
+  </si>
+  <si>
+    <t>trait_name_33</t>
+  </si>
+  <si>
+    <t>trait_name_34</t>
+  </si>
+  <si>
+    <t>trait_name_35</t>
+  </si>
+  <si>
+    <t>trait_name_36</t>
+  </si>
+  <si>
+    <t>trait_name_37</t>
+  </si>
+  <si>
+    <t>trait_name_38</t>
+  </si>
+  <si>
+    <t>trait_name_39</t>
+  </si>
+  <si>
+    <t>trait_name_40</t>
+  </si>
+  <si>
+    <t>trait_name_41</t>
+  </si>
+  <si>
+    <t>trait_name_42</t>
+  </si>
+  <si>
+    <t>trait_name_43</t>
+  </si>
+  <si>
+    <t>trait_name_44</t>
+  </si>
+  <si>
+    <t>trait_name_45</t>
+  </si>
+  <si>
+    <t>trait_name_46</t>
+  </si>
+  <si>
+    <t>trait_name_47</t>
+  </si>
+  <si>
+    <t>trait_name_48</t>
+  </si>
+  <si>
+    <t>trait_name_49</t>
+  </si>
+  <si>
+    <t>trait_name_50</t>
+  </si>
+  <si>
+    <t>trait_name_51</t>
+  </si>
+  <si>
+    <t>trait_name_52</t>
+  </si>
+  <si>
+    <t>trait_name_53</t>
+  </si>
+  <si>
+    <t>trait_name_54</t>
+  </si>
+  <si>
+    <t>trait_name_55</t>
+  </si>
+  <si>
+    <t>trait_name_56</t>
+  </si>
+  <si>
+    <t>trait_name_57</t>
+  </si>
+  <si>
+    <t>trait_name_58</t>
+  </si>
+  <si>
+    <t>trait_name_59</t>
+  </si>
+  <si>
+    <t>trait_name_60</t>
+  </si>
+  <si>
+    <t>trait_name_61</t>
+  </si>
+  <si>
+    <t>trait_name_62</t>
+  </si>
+  <si>
+    <t>trait_name_63</t>
+  </si>
+  <si>
+    <t>trait_name_64</t>
+  </si>
+  <si>
+    <t>trait_name_65</t>
+  </si>
+  <si>
+    <t>trait_name_66</t>
+  </si>
+  <si>
+    <t>trait_name_67</t>
+  </si>
+  <si>
+    <t>trait_name_68</t>
+  </si>
+  <si>
+    <t>trait_name_69</t>
+  </si>
+  <si>
+    <t>trait_name_70</t>
+  </si>
+  <si>
+    <t>trait_name_71</t>
+  </si>
+  <si>
+    <t>trait_name_72</t>
+  </si>
+  <si>
+    <t>trait_name_73</t>
+  </si>
+  <si>
+    <t>trait_name_74</t>
+  </si>
+  <si>
+    <t>trait_name_75</t>
+  </si>
+  <si>
+    <t>trait_name_76</t>
+  </si>
+  <si>
+    <t>trait_name_77</t>
+  </si>
+  <si>
+    <t>trait_name_78</t>
+  </si>
+  <si>
+    <t>trait_name_79</t>
+  </si>
+  <si>
+    <t>trait_name_80</t>
+  </si>
+  <si>
+    <t>trait_name_81</t>
+  </si>
+  <si>
+    <t>trait_name_82</t>
+  </si>
+  <si>
+    <t>trait_name_83</t>
+  </si>
+  <si>
+    <t>trait_name_84</t>
+  </si>
+  <si>
+    <t>trait_name_85</t>
+  </si>
+  <si>
+    <t>trait_name_86</t>
+  </si>
+  <si>
+    <t>trait_name_87</t>
+  </si>
+  <si>
+    <t>trait_name_88</t>
+  </si>
+  <si>
+    <t>trait_name_89</t>
+  </si>
+  <si>
+    <t>trait_name_90</t>
+  </si>
+  <si>
+    <t>trait_name_91</t>
+  </si>
+  <si>
+    <t>trait_name_92</t>
+  </si>
+  <si>
+    <t>trait_name_93</t>
+  </si>
+  <si>
+    <t>trait_name_94</t>
+  </si>
+  <si>
+    <t>trait_name_95</t>
+  </si>
+  <si>
+    <t>trait_name_96</t>
+  </si>
+  <si>
+    <t>trait_name_97</t>
+  </si>
+  <si>
+    <t>trait_name_98</t>
+  </si>
+  <si>
+    <t>trait_name_99</t>
+  </si>
+  <si>
+    <t>trait_name_100</t>
+  </si>
+  <si>
+    <t>방패</t>
+  </si>
+  <si>
+    <t>경량 방패</t>
+  </si>
+  <si>
+    <t>두번 찌르기</t>
+  </si>
+  <si>
+    <t>강타</t>
+  </si>
+  <si>
+    <t>은신 장막</t>
+  </si>
+  <si>
+    <t>암살자</t>
+  </si>
+  <si>
+    <t>저격수</t>
+  </si>
+  <si>
+    <t>샤프아이즈</t>
+  </si>
+  <si>
+    <t>트리플 샷</t>
+  </si>
+  <si>
+    <t>멀티 샷</t>
+  </si>
+  <si>
+    <t>맨손 영창</t>
+  </si>
+  <si>
+    <t>캐스터</t>
+  </si>
+  <si>
+    <t>파이어볼</t>
+  </si>
+  <si>
+    <t>메테오</t>
+  </si>
+  <si>
+    <t>블리자드</t>
+  </si>
+  <si>
+    <t>비폭력</t>
+  </si>
+  <si>
+    <t>힐</t>
+  </si>
+  <si>
+    <t>힐2</t>
+  </si>
+  <si>
+    <t>전투사제</t>
+  </si>
+  <si>
+    <t>광역 힐</t>
+  </si>
+  <si>
+    <t>치유사</t>
+  </si>
+  <si>
+    <t>멍청한 공격</t>
+  </si>
+  <si>
+    <t>매우 서툰 공격</t>
+  </si>
+  <si>
+    <t>서툰 공격</t>
+  </si>
+  <si>
+    <t>좋은 공격</t>
+  </si>
+  <si>
+    <t>매우 좋은 공격</t>
+  </si>
+  <si>
+    <t>영리한 공격</t>
+  </si>
+  <si>
+    <t>무척 말랑함</t>
+  </si>
+  <si>
+    <t>매우 말랑함</t>
+  </si>
+  <si>
+    <t>말랑함</t>
+  </si>
+  <si>
+    <t>단단함</t>
+  </si>
+  <si>
+    <t>매우 단단함</t>
+  </si>
+  <si>
+    <t>무척 단단함</t>
+  </si>
+  <si>
+    <t>매우 어리석음</t>
+  </si>
+  <si>
+    <t>어리석음</t>
+  </si>
+  <si>
+    <t>아둔함</t>
+  </si>
+  <si>
+    <t>영리함</t>
+  </si>
+  <si>
+    <t>지혜로움</t>
+  </si>
+  <si>
+    <t>매우 지혜로움</t>
+  </si>
+  <si>
+    <t>무척 허약함</t>
+  </si>
+  <si>
+    <t>매우 허약함</t>
+  </si>
+  <si>
+    <t>허약함</t>
+  </si>
+  <si>
+    <t>건강함</t>
+  </si>
+  <si>
+    <t>매우 건강함</t>
+  </si>
+  <si>
+    <t>무척 건강함</t>
+  </si>
+  <si>
+    <t>죽음의 공포</t>
+  </si>
+  <si>
+    <t>나체주의</t>
+  </si>
+  <si>
+    <t>신중한 공격</t>
+  </si>
+  <si>
+    <t>무차별 공격</t>
+  </si>
+  <si>
+    <t>무차별 학살</t>
+  </si>
+  <si>
+    <t>병든 몸 lv.3</t>
+  </si>
+  <si>
+    <t>병든 몸 lv.2</t>
+  </si>
+  <si>
+    <t>병든 몸 lv.1</t>
+  </si>
+  <si>
+    <t>회복체질 lv.1</t>
+  </si>
+  <si>
+    <t>회복체질 lv.2</t>
+  </si>
+  <si>
+    <t>회복체질 lv.3</t>
+  </si>
+  <si>
+    <t>마구잡이 lv.3</t>
+  </si>
+  <si>
+    <t>마구잡이 lv.2</t>
+  </si>
+  <si>
+    <t>마구잡이 lv.1</t>
+  </si>
+  <si>
+    <t>급소조준 lv.1</t>
+  </si>
+  <si>
+    <t>급소조준 lv.2</t>
+  </si>
+  <si>
+    <t>급소조준 lv.3</t>
+  </si>
+  <si>
+    <t>솜방망이 lv.3</t>
+  </si>
+  <si>
+    <t>솜방망이 lv.2</t>
+  </si>
+  <si>
+    <t>솜방망이 lv.1</t>
+  </si>
+  <si>
+    <t>급소강타 lv.1</t>
+  </si>
+  <si>
+    <t>급소강타 lv.2</t>
+  </si>
+  <si>
+    <t>급소강타 lv.3</t>
+  </si>
+  <si>
+    <t>표적 lv.3</t>
+  </si>
+  <si>
+    <t>표적 lv.2</t>
+  </si>
+  <si>
+    <t>표적 lv.1</t>
+  </si>
+  <si>
+    <t>날렵함 lv.1</t>
+  </si>
+  <si>
+    <t>날렵함 lv.2</t>
+  </si>
+  <si>
+    <t>날렵함 lv.3</t>
+  </si>
+  <si>
+    <t>굼뱅이 lv.3</t>
+  </si>
+  <si>
+    <t>굼뱅이 lv.2</t>
+  </si>
+  <si>
+    <t>굼뱅이 lv.1</t>
+  </si>
+  <si>
+    <t>빠른걸음 lv.1</t>
+  </si>
+  <si>
+    <t>빠른걸음 lv.2</t>
+  </si>
+  <si>
+    <t>빠른걸음 lv.3</t>
+  </si>
+  <si>
+    <t>외눈 lv.3</t>
+  </si>
+  <si>
+    <t>외눈 lv.2</t>
+  </si>
+  <si>
+    <t>외눈 lv.1</t>
+  </si>
+  <si>
+    <t>매의눈 lv.1</t>
+  </si>
+  <si>
+    <t>매의눈 lv.2</t>
+  </si>
+  <si>
+    <t>매의눈 lv.3</t>
+  </si>
+  <si>
+    <t>막 휘두르기</t>
+  </si>
+  <si>
+    <t>부활</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_des_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait_des_2</t>
+  </si>
+  <si>
+    <t>trait_des_3</t>
+  </si>
+  <si>
+    <t>trait_des_4</t>
+  </si>
+  <si>
+    <t>trait_des_5</t>
+  </si>
+  <si>
+    <t>trait_des_6</t>
+  </si>
+  <si>
+    <t>trait_des_7</t>
+  </si>
+  <si>
+    <t>trait_des_8</t>
+  </si>
+  <si>
+    <t>trait_des_9</t>
+  </si>
+  <si>
+    <t>trait_des_10</t>
+  </si>
+  <si>
+    <t>trait_des_11</t>
+  </si>
+  <si>
+    <t>trait_des_12</t>
+  </si>
+  <si>
+    <t>trait_des_13</t>
+  </si>
+  <si>
+    <t>trait_des_14</t>
+  </si>
+  <si>
+    <t>trait_des_15</t>
+  </si>
+  <si>
+    <t>trait_des_16</t>
+  </si>
+  <si>
+    <t>trait_des_17</t>
+  </si>
+  <si>
+    <t>trait_des_18</t>
+  </si>
+  <si>
+    <t>trait_des_19</t>
+  </si>
+  <si>
+    <t>trait_des_20</t>
+  </si>
+  <si>
+    <t>trait_des_21</t>
+  </si>
+  <si>
+    <t>trait_des_22</t>
+  </si>
+  <si>
+    <t>trait_des_23</t>
+  </si>
+  <si>
+    <t>trait_des_24</t>
+  </si>
+  <si>
+    <t>trait_des_25</t>
+  </si>
+  <si>
+    <t>trait_des_26</t>
+  </si>
+  <si>
+    <t>trait_des_27</t>
+  </si>
+  <si>
+    <t>trait_des_28</t>
+  </si>
+  <si>
+    <t>trait_des_29</t>
+  </si>
+  <si>
+    <t>trait_des_30</t>
+  </si>
+  <si>
+    <t>trait_des_31</t>
+  </si>
+  <si>
+    <t>trait_des_32</t>
+  </si>
+  <si>
+    <t>trait_des_33</t>
+  </si>
+  <si>
+    <t>trait_des_34</t>
+  </si>
+  <si>
+    <t>trait_des_35</t>
+  </si>
+  <si>
+    <t>trait_des_36</t>
+  </si>
+  <si>
+    <t>trait_des_37</t>
+  </si>
+  <si>
+    <t>trait_des_38</t>
+  </si>
+  <si>
+    <t>trait_des_39</t>
+  </si>
+  <si>
+    <t>trait_des_40</t>
+  </si>
+  <si>
+    <t>trait_des_41</t>
+  </si>
+  <si>
+    <t>trait_des_42</t>
+  </si>
+  <si>
+    <t>trait_des_43</t>
+  </si>
+  <si>
+    <t>trait_des_44</t>
+  </si>
+  <si>
+    <t>trait_des_45</t>
+  </si>
+  <si>
+    <t>trait_des_46</t>
+  </si>
+  <si>
+    <t>trait_des_47</t>
+  </si>
+  <si>
+    <t>trait_des_48</t>
+  </si>
+  <si>
+    <t>trait_des_49</t>
+  </si>
+  <si>
+    <t>trait_des_50</t>
+  </si>
+  <si>
+    <t>trait_des_51</t>
+  </si>
+  <si>
+    <t>trait_des_52</t>
+  </si>
+  <si>
+    <t>trait_des_53</t>
+  </si>
+  <si>
+    <t>trait_des_54</t>
+  </si>
+  <si>
+    <t>trait_des_55</t>
+  </si>
+  <si>
+    <t>trait_des_56</t>
+  </si>
+  <si>
+    <t>trait_des_57</t>
+  </si>
+  <si>
+    <t>trait_des_58</t>
+  </si>
+  <si>
+    <t>trait_des_59</t>
+  </si>
+  <si>
+    <t>trait_des_60</t>
+  </si>
+  <si>
+    <t>trait_des_61</t>
+  </si>
+  <si>
+    <t>trait_des_62</t>
+  </si>
+  <si>
+    <t>trait_des_63</t>
+  </si>
+  <si>
+    <t>trait_des_64</t>
+  </si>
+  <si>
+    <t>trait_des_65</t>
+  </si>
+  <si>
+    <t>trait_des_66</t>
+  </si>
+  <si>
+    <t>trait_des_67</t>
+  </si>
+  <si>
+    <t>trait_des_68</t>
+  </si>
+  <si>
+    <t>trait_des_69</t>
+  </si>
+  <si>
+    <t>trait_des_70</t>
+  </si>
+  <si>
+    <t>trait_des_71</t>
+  </si>
+  <si>
+    <t>trait_des_72</t>
+  </si>
+  <si>
+    <t>trait_des_73</t>
+  </si>
+  <si>
+    <t>trait_des_74</t>
+  </si>
+  <si>
+    <t>trait_des_75</t>
+  </si>
+  <si>
+    <t>trait_des_76</t>
+  </si>
+  <si>
+    <t>trait_des_77</t>
+  </si>
+  <si>
+    <t>trait_des_78</t>
+  </si>
+  <si>
+    <t>trait_des_79</t>
+  </si>
+  <si>
+    <t>trait_des_80</t>
+  </si>
+  <si>
+    <t>trait_des_81</t>
+  </si>
+  <si>
+    <t>trait_des_82</t>
+  </si>
+  <si>
+    <t>trait_des_83</t>
+  </si>
+  <si>
+    <t>trait_des_84</t>
+  </si>
+  <si>
+    <t>trait_des_85</t>
+  </si>
+  <si>
+    <t>trait_des_86</t>
+  </si>
+  <si>
+    <t>trait_des_87</t>
+  </si>
+  <si>
+    <t>trait_des_88</t>
+  </si>
+  <si>
+    <t>trait_des_89</t>
+  </si>
+  <si>
+    <t>trait_des_90</t>
+  </si>
+  <si>
+    <t>trait_des_91</t>
+  </si>
+  <si>
+    <t>trait_des_92</t>
+  </si>
+  <si>
+    <t>trait_des_93</t>
+  </si>
+  <si>
+    <t>trait_des_94</t>
+  </si>
+  <si>
+    <t>trait_des_95</t>
+  </si>
+  <si>
+    <t>trait_des_96</t>
+  </si>
+  <si>
+    <t>trait_des_97</t>
+  </si>
+  <si>
+    <t>trait_des_98</t>
+  </si>
+  <si>
+    <t>trait_des_99</t>
+  </si>
+  <si>
+    <t>trait_des_100</t>
+  </si>
+  <si>
+    <t>(stat 1)확률로 공격을 무시함</t>
+  </si>
+  <si>
+    <t>(stat 1)확률로 받는 데미지를 60% 감소함</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 2회 공격을 실행함</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 공격력의 150% 공격을 실행함</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 적의 공격 우선 순위에서 벗어남</t>
+  </si>
+  <si>
+    <t>전투 시작시 상대의 뒤로 즉시 이동함</t>
+  </si>
+  <si>
+    <t>가장 멀리있는 상대를 공격함</t>
+  </si>
+  <si>
+    <t>파티원 전원의 (치명타 확률) 증가, (치명타 데미지)증가. 다른 샤프아이즈와 중복 적용되지 않음</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 3회 공격을 실행함</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 자신의 오른쪽방향으로 60도,(skill_range)의 범위 공격을 함</t>
+  </si>
+  <si>
+    <t>무기를 장착하지 않았을 경우 공격 타입이 마법 속성이 됨</t>
+  </si>
+  <si>
+    <t>최종 공격력이 (최종 공격력 30%) 증가, 일반 공격을 하지 않음</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 한명의 적에게 (데미지 150%)와 (상태이상)을 입힘</t>
+  </si>
+  <si>
+    <t>상위마법. (cooltime)마다 한명의 적을 기준으로 반지름 skill_area 범위의 적에게 90%의 데미지와 화상을 입힘</t>
+  </si>
+  <si>
+    <t>상위마법. (cooltime)마다 한명의 적을 기준으로 반지름 skill_area 범위의 적에게 80%의 데미지와 빙결을 입힘</t>
+  </si>
+  <si>
+    <t>적을 공격할 수 없음</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 가장 체력이 낮은 아군을 (공격력150)만큼 회복</t>
+  </si>
+  <si>
+    <t>공격 횟수 (Count 2회)마다 가장 체력이 낮은 아군을 (공격력150)만큼 회복</t>
+  </si>
+  <si>
+    <t>(Stat1) 특성이 (Stat2) 특성으로 변경됨</t>
+  </si>
+  <si>
+    <t>(cooltime)마다 아군 전체를 (공격력 70%)만큼 회복</t>
+  </si>
+  <si>
+    <t>기본 공격이 아군에게 (공격력 50%)만큼의 회복으로 변경됨</t>
+  </si>
+  <si>
+    <t>공격력 -5</t>
+  </si>
+  <si>
+    <t>공격력 -3</t>
+  </si>
+  <si>
+    <t>공격력 -1</t>
+  </si>
+  <si>
+    <t>공격력 +1</t>
+  </si>
+  <si>
+    <t>공격력 +3</t>
+  </si>
+  <si>
+    <t>공격력 +5</t>
+  </si>
+  <si>
+    <t>물리 방어력 -5</t>
+  </si>
+  <si>
+    <t>물리 방어력 -3</t>
+  </si>
+  <si>
+    <t>물리 방어력 -1</t>
+  </si>
+  <si>
+    <t>물리 방어력 +1</t>
+  </si>
+  <si>
+    <t>물리 방어력 +3</t>
+  </si>
+  <si>
+    <t>물리 방어력 +5</t>
+  </si>
+  <si>
+    <t>마법 방어력 -5</t>
+  </si>
+  <si>
+    <t>마법 방어력 -3</t>
+  </si>
+  <si>
+    <t>마법 방어력 -1</t>
+  </si>
+  <si>
+    <t>마법 방어력 +1</t>
+  </si>
+  <si>
+    <t>마법 방어력 +3</t>
+  </si>
+  <si>
+    <t>마법 방어력 +5</t>
+  </si>
+  <si>
+    <t>최대 체력 -20</t>
+  </si>
+  <si>
+    <t>최대 체력 -10</t>
+  </si>
+  <si>
+    <t>최대 체력 -5</t>
+  </si>
+  <si>
+    <t>최대 체력 +5</t>
+  </si>
+  <si>
+    <t>최대 체력 +10</t>
+  </si>
+  <si>
+    <t>최대 체력 +20</t>
+  </si>
+  <si>
+    <t>현재 체력이 (특정%) 미만이 될 경우 (상태이상)에 빠짐</t>
+  </si>
+  <si>
+    <t>방어구 아이템을 착용하지 않을 경우 물리 방어력 +20, 마법 저항력 +20 방어구 아이템을 착용할 경우 물리 방어력 -20, 마법 저항력 -20</t>
+  </si>
+  <si>
+    <t>명중률 +50%, 공격 속도 -50%</t>
+  </si>
+  <si>
+    <t>명중률 -50%, 공격 속도 +50%</t>
+  </si>
+  <si>
+    <t>일반 공격 시 (확률)로 광란에 빠짐, (공격력) 증가</t>
+  </si>
+  <si>
+    <t>자연 회복력 -3</t>
+  </si>
+  <si>
+    <t>자연 회복력 -2</t>
+  </si>
+  <si>
+    <t>자연 회복력 -1</t>
+  </si>
+  <si>
+    <t>자연 회복력 +1</t>
+  </si>
+  <si>
+    <t>자연 회복력 +2</t>
+  </si>
+  <si>
+    <t>자연 회복력 +3</t>
+  </si>
+  <si>
+    <t>치명타 확률 -50%</t>
+  </si>
+  <si>
+    <t>치명타 확률 -30%</t>
+  </si>
+  <si>
+    <t>치명타 확률 -10%</t>
+  </si>
+  <si>
+    <t>치명타 확률 +10%</t>
+  </si>
+  <si>
+    <t>치명타 확률 +30%</t>
+  </si>
+  <si>
+    <t>치명타 확률 +50%</t>
+  </si>
+  <si>
+    <t>치명타 배율 -50%</t>
+  </si>
+  <si>
+    <t>치명타 배율 -30%</t>
+  </si>
+  <si>
+    <t>치명타 배율 -10%</t>
+  </si>
+  <si>
+    <t>치명타 배율 +10%</t>
+  </si>
+  <si>
+    <t>치명타 배율 +30%</t>
+  </si>
+  <si>
+    <t>치명타 배율 +50%</t>
+  </si>
+  <si>
+    <t>회피율 -20</t>
+  </si>
+  <si>
+    <t>회피율 -10</t>
+  </si>
+  <si>
+    <t>회피율 -5</t>
+  </si>
+  <si>
+    <t>회피율 +5</t>
+  </si>
+  <si>
+    <t>회피율 +10</t>
+  </si>
+  <si>
+    <t>회피율 +20</t>
+  </si>
+  <si>
+    <t>이동 속도 -80%</t>
+  </si>
+  <si>
+    <t>이동 속도 -50%</t>
+  </si>
+  <si>
+    <t>이동 속도 -30%</t>
+  </si>
+  <si>
+    <t>이동 속도 +30%</t>
+  </si>
+  <si>
+    <t>이동 속도 +50%</t>
+  </si>
+  <si>
+    <t>이동 속도 +80%</t>
+  </si>
+  <si>
+    <t>명중률 -20</t>
+  </si>
+  <si>
+    <t>명중률 -10</t>
+  </si>
+  <si>
+    <t>명중률 -5</t>
+  </si>
+  <si>
+    <t>명중률 +5</t>
+  </si>
+  <si>
+    <t>명중률 +10</t>
+  </si>
+  <si>
+    <t>명중률 +20</t>
+  </si>
+  <si>
+    <t>공격이 빗나갈 때마다 최종데미지 10% 증가 (던전 종료 시 스택 삭제)</t>
+  </si>
+  <si>
+    <t>일반 공격시 1% 확률로 적 즉사</t>
+  </si>
+  <si>
+    <t>적 처치 시 자신에게 흡혈량 +5%의 효과를 가진 스택을 쌓는다 (던전 종료 시 스택 삭제)</t>
+  </si>
+  <si>
+    <t>바보의 대검 전용기. (cooltime)마다 적 방향으로 적과 아군을 범위 공격</t>
+  </si>
+  <si>
+    <t>치명타 발동시 적 기절 부여</t>
+  </si>
+  <si>
+    <t>범위 공격이 아군을 공격함 (상태이상을 만들어 부여)</t>
+  </si>
+  <si>
+    <t>사망 시 50% 체력으로 100% 부활</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,6 +2942,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="나눔스퀘어OTF"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1816,7 +2976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1878,13 +3038,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,6 +3091,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1934,9 +3118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1974,7 +3158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2080,7 +3264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2222,7 +3406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2230,20 +3414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B16E1-566B-48AE-9945-1216E9DF9F89}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:A424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +3438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +3449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +3460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +3471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +3482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +3493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +3504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +3515,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +3526,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2353,7 +3537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2364,7 +3548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -2375,7 +3559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2386,7 +3570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +3581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +3592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +3603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -2430,7 +3614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -2441,7 +3625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +3636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +3647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -2474,7 +3658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +3669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +3680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2507,7 +3691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +3702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
@@ -2529,7 +3713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
@@ -2540,7 +3724,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
@@ -2551,7 +3735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -2562,7 +3746,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
@@ -2573,7 +3757,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +3768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
@@ -2595,7 +3779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -2606,7 +3790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -2617,7 +3801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +3812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +3823,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="8" t="s">
         <v>54</v>
       </c>
@@ -2650,7 +3834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -2661,7 +3845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
@@ -2672,7 +3856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>60</v>
       </c>
@@ -2683,7 +3867,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="8" t="s">
         <v>61</v>
       </c>
@@ -2694,7 +3878,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
         <v>66</v>
       </c>
@@ -2705,7 +3889,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="8" t="s">
         <v>67</v>
       </c>
@@ -2716,7 +3900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
         <v>68</v>
       </c>
@@ -2727,7 +3911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
         <v>69</v>
       </c>
@@ -2738,7 +3922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
         <v>70</v>
       </c>
@@ -2749,7 +3933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="8" t="s">
         <v>71</v>
       </c>
@@ -2760,7 +3944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
         <v>76</v>
       </c>
@@ -2771,7 +3955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +3966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
         <v>78</v>
       </c>
@@ -2793,7 +3977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
         <v>79</v>
       </c>
@@ -2804,7 +3988,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
         <v>80</v>
       </c>
@@ -2815,7 +3999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
         <v>81</v>
       </c>
@@ -2826,7 +4010,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
         <v>155</v>
       </c>
@@ -2834,7 +4018,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
         <v>158</v>
       </c>
@@ -2842,7 +4026,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>159</v>
       </c>
@@ -2850,7 +4034,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
         <v>161</v>
       </c>
@@ -2858,7 +4042,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="8" t="s">
         <v>163</v>
       </c>
@@ -2866,7 +4050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
         <v>165</v>
       </c>
@@ -2874,7 +4058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
         <v>166</v>
       </c>
@@ -2882,7 +4066,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
         <v>173</v>
       </c>
@@ -2890,7 +4074,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
         <v>174</v>
       </c>
@@ -2898,7 +4082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
         <v>175</v>
       </c>
@@ -2906,7 +4090,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>176</v>
       </c>
@@ -2914,7 +4098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="8" t="s">
         <v>177</v>
       </c>
@@ -2922,7 +4106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="8" t="s">
         <v>178</v>
       </c>
@@ -2930,7 +4114,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
         <v>179</v>
       </c>
@@ -2938,7 +4122,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
         <v>180</v>
       </c>
@@ -2946,7 +4130,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
         <v>181</v>
       </c>
@@ -2954,7 +4138,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
         <v>182</v>
       </c>
@@ -2962,7 +4146,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
         <v>193</v>
       </c>
@@ -2970,7 +4154,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
         <v>194</v>
       </c>
@@ -2978,7 +4162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
         <v>195</v>
       </c>
@@ -2986,7 +4170,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
         <v>196</v>
       </c>
@@ -2994,7 +4178,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
         <v>197</v>
       </c>
@@ -3002,7 +4186,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
         <v>198</v>
       </c>
@@ -3010,7 +4194,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
         <v>199</v>
       </c>
@@ -3018,7 +4202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
         <v>200</v>
       </c>
@@ -3026,7 +4210,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
         <v>201</v>
       </c>
@@ -3034,7 +4218,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
         <v>202</v>
       </c>
@@ -3042,7 +4226,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="8" t="s">
         <v>203</v>
       </c>
@@ -3050,7 +4234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="8" t="s">
         <v>204</v>
       </c>
@@ -3058,7 +4242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="8" t="s">
         <v>205</v>
       </c>
@@ -3066,7 +4250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
         <v>206</v>
       </c>
@@ -3074,7 +4258,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="8" t="s">
         <v>207</v>
       </c>
@@ -3082,7 +4266,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="8" t="s">
         <v>208</v>
       </c>
@@ -3090,7 +4274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="8" t="s">
         <v>209</v>
       </c>
@@ -3098,7 +4282,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
         <v>210</v>
       </c>
@@ -3106,7 +4290,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="8" t="s">
         <v>211</v>
       </c>
@@ -3114,7 +4298,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
         <v>212</v>
       </c>
@@ -3122,7 +4306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
         <v>293</v>
       </c>
@@ -3130,7 +4314,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="8" t="s">
         <v>294</v>
       </c>
@@ -3138,7 +4322,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
         <v>295</v>
       </c>
@@ -3146,7 +4330,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="8" t="s">
         <v>296</v>
       </c>
@@ -3154,7 +4338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
         <v>297</v>
       </c>
@@ -3162,7 +4346,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="8" t="s">
         <v>298</v>
       </c>
@@ -3170,7 +4354,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
         <v>299</v>
       </c>
@@ -3178,7 +4362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="8" t="s">
         <v>300</v>
       </c>
@@ -3186,7 +4370,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="8" t="s">
         <v>301</v>
       </c>
@@ -3194,7 +4378,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="8" t="s">
         <v>302</v>
       </c>
@@ -3202,7 +4386,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="8" t="s">
         <v>303</v>
       </c>
@@ -3210,7 +4394,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="8" t="s">
         <v>304</v>
       </c>
@@ -3218,7 +4402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
         <v>305</v>
       </c>
@@ -3226,7 +4410,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="8" t="s">
         <v>306</v>
       </c>
@@ -3234,7 +4418,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
         <v>307</v>
       </c>
@@ -3242,7 +4426,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="8" t="s">
         <v>308</v>
       </c>
@@ -3250,7 +4434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="8" t="s">
         <v>309</v>
       </c>
@@ -3258,7 +4442,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="8" t="s">
         <v>310</v>
       </c>
@@ -3266,7 +4450,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="8" t="s">
         <v>311</v>
       </c>
@@ -3274,7 +4458,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
         <v>341</v>
       </c>
@@ -3282,7 +4466,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
         <v>342</v>
       </c>
@@ -3290,7 +4474,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
         <v>343</v>
       </c>
@@ -3298,7 +4482,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
         <v>344</v>
       </c>
@@ -3306,7 +4490,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="10" t="s">
         <v>345</v>
       </c>
@@ -3314,7 +4498,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="10" t="s">
         <v>346</v>
       </c>
@@ -3322,7 +4506,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
         <v>347</v>
       </c>
@@ -3330,7 +4514,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
         <v>348</v>
       </c>
@@ -3338,7 +4522,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
         <v>349</v>
       </c>
@@ -3346,7 +4530,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
         <v>350</v>
       </c>
@@ -3354,7 +4538,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="8" t="s">
         <v>233</v>
       </c>
@@ -3362,7 +4546,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="8" t="s">
         <v>234</v>
       </c>
@@ -3370,7 +4554,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="8" t="s">
         <v>235</v>
       </c>
@@ -3378,7 +4562,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="8" t="s">
         <v>236</v>
       </c>
@@ -3386,7 +4570,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="8" t="s">
         <v>237</v>
       </c>
@@ -3394,7 +4578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="8" t="s">
         <v>238</v>
       </c>
@@ -3402,7 +4586,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="8" t="s">
         <v>239</v>
       </c>
@@ -3410,7 +4594,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="8" t="s">
         <v>240</v>
       </c>
@@ -3418,7 +4602,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="8" t="s">
         <v>241</v>
       </c>
@@ -3426,7 +4610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="8" t="s">
         <v>242</v>
       </c>
@@ -3434,7 +4618,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="8" t="s">
         <v>243</v>
       </c>
@@ -3442,7 +4626,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="8" t="s">
         <v>244</v>
       </c>
@@ -3450,7 +4634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="8" t="s">
         <v>245</v>
       </c>
@@ -3458,7 +4642,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="8" t="s">
         <v>246</v>
       </c>
@@ -3466,7 +4650,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="8" t="s">
         <v>247</v>
       </c>
@@ -3474,7 +4658,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="8" t="s">
         <v>248</v>
       </c>
@@ -3482,7 +4666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="8" t="s">
         <v>249</v>
       </c>
@@ -3490,7 +4674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="8" t="s">
         <v>250</v>
       </c>
@@ -3498,7 +4682,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="8" t="s">
         <v>251</v>
       </c>
@@ -3506,7 +4690,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="8" t="s">
         <v>252</v>
       </c>
@@ -3514,7 +4698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="8" t="s">
         <v>253</v>
       </c>
@@ -3522,7 +4706,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="8" t="s">
         <v>254</v>
       </c>
@@ -3530,7 +4714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="8" t="s">
         <v>255</v>
       </c>
@@ -3538,7 +4722,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="8" t="s">
         <v>256</v>
       </c>
@@ -3546,7 +4730,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="8" t="s">
         <v>257</v>
       </c>
@@ -3554,7 +4738,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="8" t="s">
         <v>258</v>
       </c>
@@ -3562,7 +4746,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="8" t="s">
         <v>259</v>
       </c>
@@ -3570,7 +4754,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="8" t="s">
         <v>260</v>
       </c>
@@ -3578,7 +4762,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="8" t="s">
         <v>261</v>
       </c>
@@ -3586,7 +4770,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="8" t="s">
         <v>262</v>
       </c>
@@ -3594,7 +4778,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="8" t="s">
         <v>351</v>
       </c>
@@ -3602,7 +4786,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="8" t="s">
         <v>352</v>
       </c>
@@ -3610,7 +4794,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="8" t="s">
         <v>353</v>
       </c>
@@ -3618,7 +4802,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="8" t="s">
         <v>354</v>
       </c>
@@ -3626,7 +4810,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="8" t="s">
         <v>355</v>
       </c>
@@ -3634,7 +4818,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="8" t="s">
         <v>356</v>
       </c>
@@ -3642,7 +4826,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="8" t="s">
         <v>383</v>
       </c>
@@ -3650,7 +4834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="8" t="s">
         <v>357</v>
       </c>
@@ -3658,7 +4842,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="8" t="s">
         <v>358</v>
       </c>
@@ -3666,7 +4850,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="8" t="s">
         <v>359</v>
       </c>
@@ -3674,7 +4858,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="8" t="s">
         <v>360</v>
       </c>
@@ -3682,7 +4866,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="8" t="s">
         <v>361</v>
       </c>
@@ -3690,7 +4874,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="8" t="s">
         <v>362</v>
       </c>
@@ -3698,7 +4882,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="8" t="s">
         <v>363</v>
       </c>
@@ -3706,7 +4890,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="8" t="s">
         <v>364</v>
       </c>
@@ -3714,7 +4898,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="8" t="s">
         <v>365</v>
       </c>
@@ -3722,7 +4906,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="8" t="s">
         <v>366</v>
       </c>
@@ -3730,7 +4914,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="8" t="s">
         <v>367</v>
       </c>
@@ -3738,7 +4922,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="8" t="s">
         <v>368</v>
       </c>
@@ -3746,7 +4930,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="8" t="s">
         <v>369</v>
       </c>
@@ -3754,7 +4938,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="10" t="s">
         <v>370</v>
       </c>
@@ -3762,7 +4946,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
         <v>371</v>
       </c>
@@ -3770,7 +4954,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="10" t="s">
         <v>372</v>
       </c>
@@ -3778,7 +4962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="10" t="s">
         <v>373</v>
       </c>
@@ -3786,7 +4970,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="10" t="s">
         <v>374</v>
       </c>
@@ -3794,7 +4978,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="10" t="s">
         <v>375</v>
       </c>
@@ -3802,7 +4986,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
         <v>376</v>
       </c>
@@ -3810,7 +4994,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="10" t="s">
         <v>377</v>
       </c>
@@ -3818,7 +5002,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="10" t="s">
         <v>378</v>
       </c>
@@ -3826,7 +5010,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="8" t="s">
         <v>407</v>
       </c>
@@ -3834,7 +5018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="8" t="s">
         <v>408</v>
       </c>
@@ -3842,7 +5026,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="8" t="s">
         <v>409</v>
       </c>
@@ -3850,7 +5034,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="8" t="s">
         <v>410</v>
       </c>
@@ -3858,7 +5042,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="8" t="s">
         <v>411</v>
       </c>
@@ -3866,7 +5050,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="8" t="s">
         <v>412</v>
       </c>
@@ -3874,7 +5058,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="8" t="s">
         <v>413</v>
       </c>
@@ -3882,7 +5066,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="8" t="s">
         <v>414</v>
       </c>
@@ -3890,7 +5074,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="8" t="s">
         <v>415</v>
       </c>
@@ -3898,7 +5082,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="8" t="s">
         <v>416</v>
       </c>
@@ -3906,7 +5090,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="8" t="s">
         <v>417</v>
       </c>
@@ -3914,7 +5098,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="8" t="s">
         <v>418</v>
       </c>
@@ -3922,7 +5106,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
         <v>419</v>
       </c>
@@ -3930,7 +5114,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="8" t="s">
         <v>420</v>
       </c>
@@ -3938,7 +5122,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>450</v>
       </c>
@@ -3946,7 +5130,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>435</v>
       </c>
@@ -3954,7 +5138,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>436</v>
       </c>
@@ -3962,7 +5146,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>437</v>
       </c>
@@ -3970,7 +5154,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>438</v>
       </c>
@@ -3978,7 +5162,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>439</v>
       </c>
@@ -3986,7 +5170,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>440</v>
       </c>
@@ -3994,7 +5178,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>441</v>
       </c>
@@ -4002,7 +5186,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>442</v>
       </c>
@@ -4010,7 +5194,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>443</v>
       </c>
@@ -4018,7 +5202,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>444</v>
       </c>
@@ -4026,7 +5210,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>445</v>
       </c>
@@ -4034,7 +5218,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>446</v>
       </c>
@@ -4042,7 +5226,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>447</v>
       </c>
@@ -4050,7 +5234,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>448</v>
       </c>
@@ -4058,7 +5242,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>449</v>
       </c>
@@ -4066,7 +5250,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>488</v>
       </c>
@@ -4074,7 +5258,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>467</v>
       </c>
@@ -4082,7 +5266,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>468</v>
       </c>
@@ -4090,7 +5274,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>469</v>
       </c>
@@ -4098,7 +5282,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>470</v>
       </c>
@@ -4106,7 +5290,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>471</v>
       </c>
@@ -4114,7 +5298,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>472</v>
       </c>
@@ -4122,7 +5306,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>473</v>
       </c>
@@ -4130,7 +5314,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>474</v>
       </c>
@@ -4138,7 +5322,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>475</v>
       </c>
@@ -4146,7 +5330,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>476</v>
       </c>
@@ -4154,7 +5338,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -4162,7 +5346,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>478</v>
       </c>
@@ -4170,7 +5354,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>479</v>
       </c>
@@ -4178,7 +5362,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>480</v>
       </c>
@@ -4186,12 +5370,1612 @@
         <v>498</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>481</v>
       </c>
       <c r="B224" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>499</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>500</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>501</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>502</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>503</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>504</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>505</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>506</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>507</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>508</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>509</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>510</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>511</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>512</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>513</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>514</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>515</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>516</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>517</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>518</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>519</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>520</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>521</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>522</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>523</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>524</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>525</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>526</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>527</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>528</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>529</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>530</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>531</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>532</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>533</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>534</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>535</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>536</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>537</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>538</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>539</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>540</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>541</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>543</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>544</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>546</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>547</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>549</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>551</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>552</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>554</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>556</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>559</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>560</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>561</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>562</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>563</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>564</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>565</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>566</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>567</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>568</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>569</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>570</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>571</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>572</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>573</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>574</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>575</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>576</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>577</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>578</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>579</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>580</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>581</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>582</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>583</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>584</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>585</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>586</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>587</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>588</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>589</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>590</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>591</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>592</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>593</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>594</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>595</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>596</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>597</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>598</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>687</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>688</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>689</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>690</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>691</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>692</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>693</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>694</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>695</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>696</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>697</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>698</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>699</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>700</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>701</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>702</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>703</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>704</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>705</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>706</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>707</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>708</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>709</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>710</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>711</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>712</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>713</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>714</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>715</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>716</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>717</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>718</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>719</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>720</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>721</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>722</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>723</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>725</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>729</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>730</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>731</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>732</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>733</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>734</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>735</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>736</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>737</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>738</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>739</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>740</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>741</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>742</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>743</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>744</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>745</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>746</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>747</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>748</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>749</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>750</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>751</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>752</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>753</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>754</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>755</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>756</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>757</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>758</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>759</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>760</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>761</v>
+      </c>
+      <c r="B399" s="11" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>762</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>763</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>764</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>765</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>766</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>767</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>768</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>769</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>770</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>771</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>772</v>
+      </c>
+      <c r="B410" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>773</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>774</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>775</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>776</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>777</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>778</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>779</v>
+      </c>
+      <c r="B417" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>780</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>781</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>782</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>783</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>784</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>785</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>786</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
